--- a/medicine/Psychotrope/Panach’/Panach’.xlsx
+++ b/medicine/Psychotrope/Panach’/Panach’.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Panach%E2%80%99</t>
+          <t>Panach’</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Panach' est une marque commerciale de boisson de type panaché créée en 1979 par Heineken et brassée à la Brasserie de la Valentine, à Marseille. En 2016 la marque compte pour 46 % des parts de marché sur le créneau des panachés en France[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Panach' est une marque commerciale de boisson de type panaché créée en 1979 par Heineken et brassée à la Brasserie de la Valentine, à Marseille. En 2016 la marque compte pour 46 % des parts de marché sur le créneau des panachés en France. 
 La version classique est un mélange de bière et de limonade. Dans la version Monaco, de la grenadine est ajoutée pour l'aromatiser.
 </t>
         </is>
